--- a/加拿大选校推荐.xlsx
+++ b/加拿大选校推荐.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaowenbo/前途出国留学资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB7D6BF-B2FB-4541-92AC-44297ED637FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30F798B-4E23-9B42-9174-3940C4F2837A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="17540" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="17540" tabRatio="797" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -1568,7 +1568,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1705,24 +1705,9 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1735,9 +1720,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1747,6 +1729,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1756,41 +1744,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2070,7 +2061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2092,19 +2083,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -2164,13 +2155,13 @@
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="59" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="10"/>
@@ -2204,13 +2195,13 @@
       <c r="F5" s="7">
         <v>3</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="59" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2218,13 +2209,13 @@
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="59" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="10"/>
@@ -2569,11 +2560,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:W19"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2581,15 +2572,15 @@
     <col min="1" max="1" width="3.5" style="20" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="30" customWidth="1"/>
     <col min="3" max="3" width="38.33203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="52" customWidth="1"/>
     <col min="5" max="6" width="38.33203125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" style="57" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" style="47" customWidth="1"/>
     <col min="8" max="9" width="38.33203125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="41.5" style="47" customWidth="1"/>
+    <col min="10" max="10" width="41.5" style="52" customWidth="1"/>
     <col min="11" max="12" width="23.33203125" style="21" customWidth="1"/>
-    <col min="13" max="13" width="45.1640625" style="47" customWidth="1"/>
+    <col min="13" max="13" width="45.1640625" style="52" customWidth="1"/>
     <col min="14" max="14" width="41" style="31" customWidth="1"/>
-    <col min="15" max="15" width="47.33203125" style="58" customWidth="1"/>
+    <col min="15" max="15" width="47.33203125" style="53" customWidth="1"/>
     <col min="16" max="16" width="51.83203125" style="20" customWidth="1"/>
     <col min="17" max="17" width="49.6640625" style="20" customWidth="1"/>
     <col min="18" max="18" width="52.33203125" style="20" customWidth="1"/>
@@ -2609,7 +2600,7 @@
       <c r="C2" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="51" t="s">
         <v>98</v>
       </c>
       <c r="E2" s="30" t="s">
@@ -2618,7 +2609,7 @@
       <c r="F2" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="46" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="30" t="s">
@@ -2627,7 +2618,7 @@
       <c r="I2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="51" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="30" t="s">
@@ -2636,7 +2627,7 @@
       <c r="L2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="N2" s="23" t="s">
@@ -2680,7 +2671,7 @@
       <c r="C3" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="52" t="s">
         <v>203</v>
       </c>
       <c r="E3" s="21" t="s">
@@ -2689,7 +2680,7 @@
       <c r="F3" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="47" t="s">
         <v>129</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -2698,7 +2689,7 @@
       <c r="I3" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="52" t="s">
         <v>155</v>
       </c>
       <c r="K3" s="21" t="s">
@@ -2707,13 +2698,13 @@
       <c r="L3" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="52" t="s">
         <v>195</v>
       </c>
       <c r="N3" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="O3" s="57" t="s">
+      <c r="O3" s="52" t="s">
         <v>192</v>
       </c>
       <c r="P3" s="21" t="s">
@@ -2748,7 +2739,7 @@
       <c r="C4" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="21" t="s">
@@ -2757,7 +2748,7 @@
       <c r="F4" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="47" t="s">
         <v>240</v>
       </c>
       <c r="H4" s="21" t="s">
@@ -2766,7 +2757,7 @@
       <c r="I4" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="52" t="s">
         <v>156</v>
       </c>
       <c r="K4" s="24" t="s">
@@ -2775,13 +2766,13 @@
       <c r="L4" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="52" t="s">
         <v>180</v>
       </c>
       <c r="N4" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="52" t="s">
         <v>168</v>
       </c>
       <c r="P4" s="21" t="s">
@@ -2816,7 +2807,7 @@
       <c r="C5" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="53" t="s">
         <v>126</v>
       </c>
       <c r="E5" s="26" t="s">
@@ -2825,7 +2816,7 @@
       <c r="F5" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="48" t="s">
         <v>125</v>
       </c>
       <c r="H5" s="20" t="s">
@@ -2834,7 +2825,7 @@
       <c r="I5" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="52" t="s">
         <v>157</v>
       </c>
       <c r="K5" s="21" t="s">
@@ -2843,13 +2834,13 @@
       <c r="L5" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="52" t="s">
         <v>146</v>
       </c>
       <c r="N5" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="O5" s="57" t="s">
+      <c r="O5" s="52" t="s">
         <v>169</v>
       </c>
       <c r="P5" s="20" t="s">
@@ -2884,7 +2875,7 @@
       <c r="C6" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="52" t="s">
         <v>116</v>
       </c>
       <c r="E6" s="21" t="s">
@@ -2893,7 +2884,7 @@
       <c r="F6" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="47" t="s">
         <v>142</v>
       </c>
       <c r="H6" s="21" t="s">
@@ -2902,7 +2893,7 @@
       <c r="I6" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="52" t="s">
         <v>160</v>
       </c>
       <c r="K6" s="21" t="s">
@@ -2911,13 +2902,13 @@
       <c r="L6" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="52" t="s">
         <v>184</v>
       </c>
       <c r="N6" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="O6" s="57" t="s">
+      <c r="O6" s="52" t="s">
         <v>170</v>
       </c>
       <c r="P6" s="21" t="s">
@@ -2952,7 +2943,7 @@
       <c r="C7" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="52" t="s">
         <v>206</v>
       </c>
       <c r="E7" s="21" t="s">
@@ -2961,7 +2952,7 @@
       <c r="F7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="47" t="s">
         <v>242</v>
       </c>
       <c r="H7" s="21" t="s">
@@ -2970,7 +2961,7 @@
       <c r="I7" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="52" t="s">
         <v>158</v>
       </c>
       <c r="K7" s="21" t="s">
@@ -2979,13 +2970,13 @@
       <c r="L7" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="52" t="s">
         <v>181</v>
       </c>
       <c r="N7" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="O7" s="57" t="s">
+      <c r="O7" s="52" t="s">
         <v>165</v>
       </c>
       <c r="P7" s="21" t="s">
@@ -3020,7 +3011,7 @@
       <c r="C8" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="52" t="s">
         <v>114</v>
       </c>
       <c r="E8" s="21" t="s">
@@ -3029,7 +3020,7 @@
       <c r="F8" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="48" t="s">
         <v>143</v>
       </c>
       <c r="H8" s="20" t="s">
@@ -3038,7 +3029,7 @@
       <c r="I8" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="53" t="s">
         <v>159</v>
       </c>
       <c r="K8" s="21" t="s">
@@ -3047,13 +3038,13 @@
       <c r="L8" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="M8" s="48" t="s">
+      <c r="M8" s="53" t="s">
         <v>159</v>
       </c>
       <c r="N8" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="O8" s="58" t="s">
+      <c r="O8" s="53" t="s">
         <v>159</v>
       </c>
       <c r="P8" s="20" t="s">
@@ -3088,7 +3079,7 @@
       <c r="C9" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="52" t="s">
         <v>113</v>
       </c>
       <c r="E9" s="21" t="s">
@@ -3097,7 +3088,7 @@
       <c r="F9" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="47" t="s">
         <v>208</v>
       </c>
       <c r="H9" s="21" t="s">
@@ -3106,7 +3097,7 @@
       <c r="I9" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="54" t="s">
         <v>209</v>
       </c>
       <c r="K9" s="21" t="s">
@@ -3115,13 +3106,13 @@
       <c r="L9" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="M9" s="47" t="s">
+      <c r="M9" s="52" t="s">
         <v>182</v>
       </c>
       <c r="N9" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="O9" s="57" t="s">
+      <c r="O9" s="52" t="s">
         <v>166</v>
       </c>
       <c r="P9" s="21" t="s">
@@ -3161,67 +3152,67 @@
       <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="68">
         <v>43891</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="71">
         <v>43891</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="74">
         <v>43798</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="65">
         <v>44201</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="65">
         <v>44270</v>
       </c>
-      <c r="J11" s="70">
+      <c r="J11" s="64">
         <v>44180</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="67">
         <v>43845</v>
       </c>
-      <c r="L11" s="68">
+      <c r="L11" s="67">
         <v>43845</v>
       </c>
-      <c r="M11" s="70">
+      <c r="M11" s="64">
         <v>43920</v>
       </c>
-      <c r="N11" s="69" t="s">
+      <c r="N11" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="O11" s="71">
+      <c r="O11" s="64">
         <v>43876</v>
       </c>
-      <c r="P11" s="72" t="s">
+      <c r="P11" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="67">
         <v>43861</v>
       </c>
-      <c r="R11" s="68">
+      <c r="R11" s="67">
         <v>43861</v>
       </c>
-      <c r="S11" s="67">
+      <c r="S11" s="68">
         <v>44228</v>
       </c>
-      <c r="T11" s="68">
+      <c r="T11" s="67">
         <v>43845</v>
       </c>
-      <c r="U11" s="68">
+      <c r="U11" s="67">
         <v>44180</v>
       </c>
-      <c r="V11" s="67">
+      <c r="V11" s="68">
         <v>44228</v>
       </c>
     </row>
@@ -3229,27 +3220,27 @@
       <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="67"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="68"/>
     </row>
     <row r="13" spans="1:23" ht="18.75" customHeight="1">
       <c r="A13" s="20">
@@ -3261,7 +3252,7 @@
       <c r="C13" s="22">
         <v>44089</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="56">
         <v>44089</v>
       </c>
       <c r="E13" s="22"/>
@@ -3271,7 +3262,7 @@
       </c>
       <c r="I13" s="27"/>
       <c r="N13" s="40"/>
-      <c r="O13" s="62">
+      <c r="O13" s="56">
         <v>44105</v>
       </c>
       <c r="P13" s="22">
@@ -3294,7 +3285,7 @@
       <c r="C14" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="52" t="s">
         <v>115</v>
       </c>
       <c r="E14" s="24" t="s">
@@ -3303,7 +3294,7 @@
       <c r="F14" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="59" t="s">
+      <c r="G14" s="49" t="s">
         <v>128</v>
       </c>
       <c r="H14" s="24" t="s">
@@ -3312,7 +3303,7 @@
       <c r="I14" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="54" t="s">
         <v>153</v>
       </c>
       <c r="K14" s="24" t="s">
@@ -3321,13 +3312,13 @@
       <c r="L14" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="M14" s="47" t="s">
+      <c r="M14" s="52" t="s">
         <v>183</v>
       </c>
       <c r="N14" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="O14" s="59" t="s">
+      <c r="O14" s="54" t="s">
         <v>164</v>
       </c>
       <c r="P14" s="24" t="s">
@@ -3362,7 +3353,7 @@
       <c r="C15" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="72" t="s">
         <v>122</v>
       </c>
       <c r="E15" s="28" t="s">
@@ -3371,7 +3362,7 @@
       <c r="F15" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="75" t="s">
         <v>141</v>
       </c>
       <c r="H15" s="29" t="s">
@@ -3380,7 +3371,7 @@
       <c r="I15" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="70" t="s">
         <v>154</v>
       </c>
       <c r="K15" s="29" t="s">
@@ -3390,7 +3381,7 @@
         <v>163</v>
       </c>
       <c r="N15" s="40"/>
-      <c r="O15" s="57" t="s">
+      <c r="O15" s="52" t="s">
         <v>167</v>
       </c>
       <c r="P15" s="28">
@@ -3419,17 +3410,17 @@
       <c r="A16" s="36"/>
       <c r="B16" s="37"/>
       <c r="C16" s="38"/>
-      <c r="D16" s="51"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
-      <c r="G16" s="61"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
-      <c r="J16" s="51"/>
+      <c r="J16" s="55"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
-      <c r="M16" s="51"/>
-      <c r="O16" s="63"/>
+      <c r="M16" s="55"/>
+      <c r="O16" s="57"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
@@ -3441,18 +3432,24 @@
     </row>
     <row r="18" spans="3:6">
       <c r="C18" s="33"/>
-      <c r="D18" s="54"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="33"/>
-      <c r="D19" s="54"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="O11:O12"/>
@@ -3468,12 +3465,6 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
